--- a/截图.xlsx
+++ b/截图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王浩宇\Desktop\skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6FEE5E-332F-4E90-9C88-E1AED4BAE748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A5DA45-D280-4F40-8434-6DA714E136E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A201660-8938-4A04-B007-B8446F164BE7}"/>
   </bookViews>
@@ -163,16 +163,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>607314</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>120634</xdr:rowOff>
+      <xdr:colOff>540647</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>46414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFED829A-BF4F-4272-8312-E1D2FB6F76FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E738EF17-D1A7-4BF4-B6AF-AAD51A4932B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -189,7 +189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="11391900"/>
-          <a:ext cx="18285714" cy="10285714"/>
+          <a:ext cx="18219047" cy="9685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
